--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AEBB46-5D86-45B2-8D2F-43DF6F71FF48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41BF2763-41AA-4786-8C3D-9650B11827EF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
   <si>
     <t>Users</t>
   </si>
@@ -205,6 +205,60 @@
   </si>
   <si>
     <t>Handle registration of new user</t>
+  </si>
+  <si>
+    <t>nama method</t>
+  </si>
+  <si>
+    <t>nama view</t>
+  </si>
+  <si>
+    <t>user.index</t>
+  </si>
+  <si>
+    <t>user.loginpage</t>
+  </si>
+  <si>
+    <t>Handle user login</t>
+  </si>
+  <si>
+    <t>user.login</t>
+  </si>
+  <si>
+    <t>user.logout</t>
+  </si>
+  <si>
+    <t>user.register</t>
+  </si>
+  <si>
+    <t>user.store</t>
+  </si>
+  <si>
+    <t>user.profile.show</t>
+  </si>
+  <si>
+    <t>user.transaction.show</t>
+  </si>
+  <si>
+    <t>user.profile.edit</t>
+  </si>
+  <si>
+    <t>user.transactionslist.show</t>
+  </si>
+  <si>
+    <t>user.profile.update</t>
+  </si>
+  <si>
+    <t>profile.show</t>
+  </si>
+  <si>
+    <t>profile.edit</t>
+  </si>
+  <si>
+    <t>transaction.show</t>
+  </si>
+  <si>
+    <t>transaction.list</t>
   </si>
 </sst>
 </file>
@@ -563,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AD5C87-9DF7-45EE-84EB-1044C9ED29C4}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,9 +631,11 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -598,8 +654,17 @@
       <c r="F1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -616,15 +681,23 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
@@ -632,13 +705,19 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -646,166 +725,207 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>50</v>
@@ -815,15 +935,16 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>50</v>
@@ -833,162 +954,174 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>50</v>
@@ -998,38 +1131,41 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>50</v>
@@ -1039,15 +1175,16 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -1057,46 +1194,50 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>50</v>
@@ -1106,154 +1247,193 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.3">

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41BF2763-41AA-4786-8C3D-9650B11827EF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19A4A5F4-0823-4093-884A-6913D213614F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19A4A5F4-0823-4093-884A-6913D213614F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB8A6CB6-D857-436C-A4C6-905CFDB3CCD7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB8A6CB6-D857-436C-A4C6-905CFDB3CCD7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D0DA766-2D17-47A8-8F32-B95EA2BEC579}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +709,7 @@
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D0DA766-2D17-47A8-8F32-B95EA2BEC579}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36DECF6E-B4AD-445C-8BF5-FFE5F23714D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>User logout</t>
   </si>
   <si>
-    <t>Users/{Username}/Profile</t>
-  </si>
-  <si>
     <t>Show user's profile</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>Users/{Username}/Profile/Update</t>
-  </si>
-  <si>
     <t>Form to edit existing Profile</t>
   </si>
   <si>
@@ -259,13 +253,19 @@
   </si>
   <si>
     <t>transaction.list</t>
+  </si>
+  <si>
+    <t>Users/{Username}</t>
+  </si>
+  <si>
+    <t>Users/{Username}/Update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,13 +274,52 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,10 +331,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,8 +345,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,7 +675,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,28 +692,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -666,252 +721,256 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>62</v>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>75</v>
+      <c r="G10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>77</v>
+      <c r="G12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>76</v>
+      <c r="G13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -922,194 +981,194 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1118,39 +1177,39 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1162,58 +1221,58 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1225,7 +1284,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1234,39 +1293,39 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="1"/>
     </row>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36DECF6E-B4AD-445C-8BF5-FFE5F23714D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3378B2A8-FF3F-41A7-A740-CDAE73600496}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
   <si>
     <t>Users</t>
   </si>
@@ -243,12 +243,6 @@
     <t>user.profile.update</t>
   </si>
   <si>
-    <t>profile.show</t>
-  </si>
-  <si>
-    <t>profile.edit</t>
-  </si>
-  <si>
     <t>transaction.show</t>
   </si>
   <si>
@@ -258,7 +252,97 @@
     <t>Users/{Username}</t>
   </si>
   <si>
-    <t>Users/{Username}/Update</t>
+    <t>users.index</t>
+  </si>
+  <si>
+    <t>users.login</t>
+  </si>
+  <si>
+    <t>users.register</t>
+  </si>
+  <si>
+    <t>profiles.show</t>
+  </si>
+  <si>
+    <t>profiles.edit</t>
+  </si>
+  <si>
+    <t>Users/{Username}/edit</t>
+  </si>
+  <si>
+    <t>item.show</t>
+  </si>
+  <si>
+    <t>item.create</t>
+  </si>
+  <si>
+    <t>item.store</t>
+  </si>
+  <si>
+    <t>item.edit</t>
+  </si>
+  <si>
+    <t>item.delete</t>
+  </si>
+  <si>
+    <t>item.buy</t>
+  </si>
+  <si>
+    <t>item.update</t>
+  </si>
+  <si>
+    <t>item.destroy</t>
+  </si>
+  <si>
+    <t>item.transaction.add</t>
+  </si>
+  <si>
+    <t>items.show</t>
+  </si>
+  <si>
+    <t>items.create</t>
+  </si>
+  <si>
+    <t>items.edit</t>
+  </si>
+  <si>
+    <t>items.delete</t>
+  </si>
+  <si>
+    <t>items.buy</t>
+  </si>
+  <si>
+    <t>service.index</t>
+  </si>
+  <si>
+    <t>service.show</t>
+  </si>
+  <si>
+    <t>category.index</t>
+  </si>
+  <si>
+    <t>category.show</t>
+  </si>
+  <si>
+    <t>category.subcategory.show</t>
+  </si>
+  <si>
+    <t>services.index</t>
+  </si>
+  <si>
+    <t>services.show</t>
+  </si>
+  <si>
+    <t>search.engine</t>
+  </si>
+  <si>
+    <t>Items/{Username}/{ItemID}</t>
+  </si>
+  <si>
+    <t>item.index</t>
+  </si>
+  <si>
+    <t>items.index</t>
   </si>
 </sst>
 </file>
@@ -674,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AD5C87-9DF7-45EE-84EB-1044C9ED29C4}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +824,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -764,7 +848,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -826,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -855,7 +939,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
@@ -871,7 +955,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -879,7 +963,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>49</v>
@@ -897,7 +981,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -905,7 +989,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>49</v>
@@ -944,7 +1028,7 @@
         <v>70</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -970,7 +1054,7 @@
         <v>68</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -984,7 +1068,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>49</v>
@@ -996,7 +1080,12 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1015,9 +1104,14 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1030,13 +1124,20 @@
       <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1051,9 +1152,12 @@
       <c r="F18" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1072,9 +1176,14 @@
       <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1091,9 +1200,12 @@
       <c r="F20" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1112,9 +1224,14 @@
       <c r="F21" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1131,9 +1248,12 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1152,9 +1272,14 @@
       <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1170,12 +1295,15 @@
       <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1192,9 +1320,14 @@
       <c r="F26" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1211,15 +1344,20 @@
       <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1236,9 +1374,11 @@
       <c r="F29" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1255,9 +1395,11 @@
       <c r="F30" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1274,9 +1416,11 @@
       <c r="F31" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1327,7 +1471,9 @@
       <c r="F35" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3378B2A8-FF3F-41A7-A740-CDAE73600496}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81CA5B61-2440-4383-9D53-CDF628FC2197}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t>Users</t>
   </si>
@@ -421,7 +421,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +438,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -758,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AD5C87-9DF7-45EE-84EB-1044C9ED29C4}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +819,7 @@
       <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="4"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -840,7 +843,7 @@
       <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4"/>
       <c r="F4" t="s">
         <v>5</v>
       </c>
@@ -862,7 +865,7 @@
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4"/>
       <c r="F5" t="s">
         <v>62</v>
       </c>
@@ -882,7 +885,7 @@
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4"/>
       <c r="F6" t="s">
         <v>7</v>
       </c>
@@ -902,7 +905,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4"/>
       <c r="F7" t="s">
         <v>56</v>
       </c>
@@ -923,9 +926,7 @@
       <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="F8" t="s">
         <v>57</v>
       </c>
@@ -947,7 +948,7 @@
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="4"/>
       <c r="F9" t="s">
         <v>8</v>
       </c>
@@ -971,7 +972,7 @@
       <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
@@ -994,7 +995,7 @@
       <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
@@ -1018,7 +1019,7 @@
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
@@ -1044,7 +1045,7 @@
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
@@ -1060,7 +1061,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="4"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1076,11 +1077,11 @@
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="4"/>
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1100,7 +1101,7 @@
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="4"/>
       <c r="F16" t="s">
         <v>16</v>
       </c>
@@ -1124,13 +1125,13 @@
       <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1148,11 +1149,11 @@
       <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="4"/>
       <c r="F18" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H18" s="5"/>
@@ -1170,13 +1171,13 @@
       <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="3" t="s">
         <v>84</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1194,13 +1195,13 @@
       <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="H20" s="5"/>
@@ -1218,13 +1219,13 @@
       <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="3" t="s">
         <v>85</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -1236,19 +1237,19 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="3" t="s">
         <v>88</v>
       </c>
       <c r="H22" s="5"/>
@@ -1266,7 +1267,7 @@
       <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
@@ -1289,7 +1290,7 @@
       <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
@@ -1301,6 +1302,7 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="5"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1316,7 +1318,7 @@
       <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="4"/>
       <c r="F26" t="s">
         <v>21</v>
       </c>
@@ -1340,7 +1342,7 @@
       <c r="D27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="4"/>
       <c r="F27" t="s">
         <v>23</v>
       </c>
@@ -1354,7 +1356,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="4"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1370,7 +1372,7 @@
       <c r="D29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="4"/>
       <c r="F29" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1393,7 @@
       <c r="D30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="4"/>
       <c r="F30" t="s">
         <v>27</v>
       </c>
@@ -1412,7 +1414,7 @@
       <c r="D31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="4"/>
       <c r="F31" t="s">
         <v>29</v>
       </c>
@@ -1423,7 +1425,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="4"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1432,7 +1434,7 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="4"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1448,7 +1450,7 @@
       <c r="D34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="4"/>
       <c r="F34" t="s">
         <v>32</v>
       </c>
@@ -1467,7 +1469,7 @@
       <c r="D35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="4"/>
       <c r="F35" t="s">
         <v>34</v>
       </c>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81CA5B61-2440-4383-9D53-CDF628FC2197}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C9F7479D-E298-4FBF-820A-B20B6DB9753E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="132">
   <si>
     <t>Users</t>
   </si>
@@ -343,13 +343,91 @@
   </si>
   <si>
     <t>items.index</t>
+  </si>
+  <si>
+    <t>Services/create</t>
+  </si>
+  <si>
+    <t>Creating Service</t>
+  </si>
+  <si>
+    <t>service.create</t>
+  </si>
+  <si>
+    <t>services.create</t>
+  </si>
+  <si>
+    <t>Services/{ServiceID}/edit</t>
+  </si>
+  <si>
+    <t>Handle Service Creation</t>
+  </si>
+  <si>
+    <t>Editing Service's Information</t>
+  </si>
+  <si>
+    <t>service.store</t>
+  </si>
+  <si>
+    <t>service.edit</t>
+  </si>
+  <si>
+    <t>service.update</t>
+  </si>
+  <si>
+    <t>Services/{ServiceID}/delete</t>
+  </si>
+  <si>
+    <t>Handle updates to service</t>
+  </si>
+  <si>
+    <t>Service deletion confirmation</t>
+  </si>
+  <si>
+    <t>Handle service deletion</t>
+  </si>
+  <si>
+    <t>service.delete</t>
+  </si>
+  <si>
+    <t>service.destroy</t>
+  </si>
+  <si>
+    <t>services.delete</t>
+  </si>
+  <si>
+    <t>Handling Category/SubCategory Creation</t>
+  </si>
+  <si>
+    <t>Category/edit</t>
+  </si>
+  <si>
+    <t>Category Controlling</t>
+  </si>
+  <si>
+    <t>Handling Category/SubCategory Updates</t>
+  </si>
+  <si>
+    <t>Handling Category/SubCategory Deletion</t>
+  </si>
+  <si>
+    <t>category.control</t>
+  </si>
+  <si>
+    <t>category.store</t>
+  </si>
+  <si>
+    <t>category.destroy</t>
+  </si>
+  <si>
+    <t>category.update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,8 +460,16 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +491,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -415,13 +507,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -435,15 +528,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -759,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AD5C87-9DF7-45EE-84EB-1044C9ED29C4}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +892,7 @@
       <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F1" t="s">
@@ -819,14 +921,14 @@
       <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="11"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -843,14 +945,14 @@
       <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="11"/>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -865,14 +967,14 @@
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="11"/>
       <c r="F5" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -885,14 +987,14 @@
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="11"/>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -905,14 +1007,14 @@
         <v>49</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="11"/>
       <c r="F7" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -926,14 +1028,14 @@
       <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="11"/>
       <c r="F8" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -948,14 +1050,14 @@
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="11"/>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -972,7 +1074,7 @@
       <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
@@ -981,7 +1083,7 @@
       <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -995,7 +1097,7 @@
       <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
@@ -1004,7 +1106,7 @@
       <c r="G11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1019,7 +1121,7 @@
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
@@ -1045,7 +1147,7 @@
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
@@ -1061,7 +1163,6 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1077,7 +1178,7 @@
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="11"/>
       <c r="F15" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1202,7 @@
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="11"/>
       <c r="F16" t="s">
         <v>16</v>
       </c>
@@ -1125,7 +1226,7 @@
       <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
@@ -1149,14 +1250,14 @@
       <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3"/>
       <c r="F18" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1171,7 +1272,7 @@
       <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
@@ -1195,7 +1296,7 @@
       <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
@@ -1204,7 +1305,7 @@
       <c r="G20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1219,7 +1320,7 @@
       <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
@@ -1243,7 +1344,7 @@
       <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
@@ -1252,7 +1353,7 @@
       <c r="G22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1267,7 +1368,7 @@
       <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
@@ -1290,7 +1391,7 @@
       <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
@@ -1299,10 +1400,9 @@
       <c r="G24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E25" s="5"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1318,11 +1418,11 @@
       <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="3"/>
       <c r="F26" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>95</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -1342,11 +1442,11 @@
       <c r="D27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="3"/>
       <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>96</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -1354,218 +1454,370 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="4"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" t="s">
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="H35" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" t="s">
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="H36" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" t="s">
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="4"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="4"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
@@ -1642,21 +1894,42 @@
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C9F7479D-E298-4FBF-820A-B20B6DB9753E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CD36C52-7CB1-4F28-8F44-315BF088B3CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CD36C52-7CB1-4F28-8F44-315BF088B3CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE2DA2CD-A62D-43CA-A396-79AD8534D1DE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AD5C87-9DF7-45EE-84EB-1044C9ED29C4}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +928,7 @@
       <c r="G3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="G9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE2DA2CD-A62D-43CA-A396-79AD8534D1DE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC6A80B0-079C-4184-8D31-3A4FCB913EE9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,6 +543,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
@@ -863,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AD5C87-9DF7-45EE-84EB-1044C9ED29C4}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1422,7 +1425,7 @@
       <c r="F26" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -1446,7 +1449,7 @@
       <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -1472,7 +1475,7 @@
       <c r="F28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -1496,7 +1499,7 @@
       <c r="F29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>113</v>
       </c>
       <c r="H29" s="11"/>
@@ -1520,7 +1523,7 @@
       <c r="F30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -1544,7 +1547,7 @@
       <c r="F31" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>115</v>
       </c>
       <c r="H31" s="11"/>
@@ -1568,7 +1571,7 @@
       <c r="F32" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -1590,7 +1593,7 @@
       <c r="F33" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>121</v>
       </c>
       <c r="H33" s="11"/>
@@ -1612,10 +1615,10 @@
       <c r="F35" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1636,10 +1639,10 @@
       <c r="F36" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1660,10 +1663,10 @@
       <c r="F37" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1686,10 +1689,10 @@
       <c r="F38" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="12" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1710,7 +1713,7 @@
       <c r="F39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H39" s="11"/>
@@ -1732,7 +1735,7 @@
       <c r="F40" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="H40" s="11"/>
@@ -1754,7 +1757,7 @@
       <c r="F41" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>131</v>
       </c>
       <c r="H41" s="11"/>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC6A80B0-079C-4184-8D31-3A4FCB913EE9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0832AEC9-86A6-44DC-9CC5-0C67E39D990B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,6 +544,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -866,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AD5C87-9DF7-45EE-84EB-1044C9ED29C4}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,7 +958,7 @@
       <c r="G4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1017,7 +1020,7 @@
       <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1212,7 +1215,7 @@
       <c r="G16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1618,7 +1621,7 @@
       <c r="G35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1642,7 +1645,7 @@
       <c r="G36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="13" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Web Based Development\0 - Laravel Projects\x-market\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0832AEC9-86A6-44DC-9CC5-0C67E39D990B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F8200EA-AE59-4FBC-A5D0-4B411A046470}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AD5C87-9DF7-45EE-84EB-1044C9ED29C4}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1080,7 @@
       <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
@@ -1103,7 +1103,7 @@
       <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
@@ -1666,10 +1666,10 @@
       <c r="F37" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="13" t="s">
         <v>99</v>
       </c>
     </row>

--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\x-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F8200EA-AE59-4FBC-A5D0-4B411A046470}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63C16305-2A38-4326-90B6-C53FB9768AAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{43463EAA-A319-4CAD-BB61-1CA437DD593E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="130">
   <si>
     <t>Users</t>
   </si>
@@ -231,24 +231,15 @@
     <t>user.profile.show</t>
   </si>
   <si>
-    <t>user.transaction.show</t>
-  </si>
-  <si>
     <t>user.profile.edit</t>
   </si>
   <si>
-    <t>user.transactionslist.show</t>
-  </si>
-  <si>
     <t>user.profile.update</t>
   </si>
   <si>
     <t>transaction.show</t>
   </si>
   <si>
-    <t>transaction.list</t>
-  </si>
-  <si>
     <t>Users/{Username}</t>
   </si>
   <si>
@@ -421,6 +412,9 @@
   </si>
   <si>
     <t>category.update</t>
+  </si>
+  <si>
+    <t>transaction.index</t>
   </si>
 </sst>
 </file>
@@ -469,7 +463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +491,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,10 +538,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,6 +545,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
@@ -869,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AD5C87-9DF7-45EE-84EB-1044C9ED29C4}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +942,7 @@
       <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -935,7 +950,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -951,7 +966,7 @@
       <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="9"/>
       <c r="F4" t="s">
         <v>5</v>
       </c>
@@ -959,7 +974,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -973,14 +988,14 @@
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="9"/>
       <c r="F5" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -993,14 +1008,14 @@
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="9"/>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1013,7 +1028,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="9"/>
       <c r="F7" t="s">
         <v>56</v>
       </c>
@@ -1021,7 +1036,7 @@
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1034,21 +1049,21 @@
       <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="9"/>
       <c r="F8" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
@@ -1056,7 +1071,7 @@
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="9"/>
       <c r="F9" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1072,7 +1087,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>49</v>
@@ -1087,10 +1102,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1098,7 +1113,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>49</v>
@@ -1110,9 +1125,9 @@
         <v>51</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1134,10 +1149,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1160,10 +1175,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1176,7 +1191,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>49</v>
@@ -1184,15 +1199,15 @@
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="9"/>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1208,15 +1223,15 @@
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="9"/>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1239,10 +1254,10 @@
         <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1261,9 +1276,9 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1285,10 +1300,10 @@
         <v>46</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1309,9 +1324,9 @@
         <v>47</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1333,10 +1348,10 @@
         <v>45</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1357,9 +1372,9 @@
         <v>48</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1381,10 +1396,10 @@
         <v>54</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1404,202 +1419,202 @@
         <v>55</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" t="s">
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>100</v>
+      <c r="G26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" t="s">
+      <c r="C27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>101</v>
+      <c r="G27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="C30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="G30" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="C32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="G33" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1619,10 +1634,10 @@
         <v>25</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1643,10 +1658,10 @@
         <v>27</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1667,10 +1682,10 @@
         <v>29</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1678,7 +1693,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>49</v>
@@ -1690,13 +1705,13 @@
         <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>128</v>
+      <c r="H38" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1714,12 +1729,12 @@
         <v>49</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -1736,12 +1751,12 @@
         <v>49</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H40" s="11"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
@@ -1758,12 +1773,12 @@
         <v>49</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="11"/>
+        <v>128</v>
+      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
@@ -1816,7 +1831,7 @@
         <v>34</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
